--- a/FixtureBookTest/FixtureTest/Cast/Temp/PocoValidatorTest.xlsx
+++ b/FixtureBookTest/FixtureTest/Cast/Temp/PocoValidatorTest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="48">
   <si>
     <t>D. パラメタ</t>
     <phoneticPr fontId="3"/>
@@ -151,6 +151,105 @@
   </si>
   <si>
     <t>例外のValidate実行時に例外が発生しない場合はAssertionFaildExceptionとなる</t>
+  </si>
+  <si>
+    <t>A. テストケース</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>stringを検証できる</t>
+    <rPh sb="7" eb="9">
+      <t>ケンショウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>intを検証できる</t>
+    <rPh sb="4" eb="6">
+      <t>ケンショウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>intの配列を検証できる</t>
+    <rPh sb="4" eb="6">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケンショウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>stringの配列を検証できる</t>
+    <rPh sb="10" eb="12">
+      <t>ケンショウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>nullを検証できる</t>
+    <rPh sb="5" eb="7">
+      <t>ケンショウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${NULL}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>nullと空文字列の配列を検証できる</t>
+    <rPh sb="5" eb="9">
+      <t>カラモジレツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケンショウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>${EMPTY}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>aa</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -639,10 +738,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="B2:E58"/>
+  <dimension ref="B2:E115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6"/>
@@ -969,6 +1068,207 @@
         <v>11</v>
       </c>
     </row>
+    <row r="60" spans="2:5" s="1" customFormat="1">
+      <c r="B60" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="C62" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" s="3" customFormat="1">
+      <c r="B64" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4">
+      <c r="C65" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D65" s="5"/>
+    </row>
+    <row r="66" spans="2:4">
+      <c r="D66" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4">
+      <c r="D67" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" s="1" customFormat="1">
+      <c r="B69" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4">
+      <c r="C71" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" s="3" customFormat="1">
+      <c r="B73" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4">
+      <c r="C74" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D74" s="5"/>
+    </row>
+    <row r="75" spans="2:4">
+      <c r="D75" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4">
+      <c r="D76" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" s="1" customFormat="1">
+      <c r="B78" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4">
+      <c r="C80" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" s="3" customFormat="1">
+      <c r="B82" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4">
+      <c r="C83" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D83" s="5"/>
+    </row>
+    <row r="84" spans="2:4">
+      <c r="D84" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4">
+      <c r="D85" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" s="1" customFormat="1">
+      <c r="B87" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4">
+      <c r="C89" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" s="3" customFormat="1">
+      <c r="B91" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4">
+      <c r="C92" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D92" s="5"/>
+    </row>
+    <row r="93" spans="2:4">
+      <c r="D93" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4">
+      <c r="D94" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4">
+      <c r="D95" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" s="1" customFormat="1">
+      <c r="B97" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4">
+      <c r="C99" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" s="3" customFormat="1">
+      <c r="B101" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4">
+      <c r="C102" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D102" s="5"/>
+    </row>
+    <row r="103" spans="2:4">
+      <c r="D103" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4">
+      <c r="D104" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4">
+      <c r="D105" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" s="1" customFormat="1">
+      <c r="B107" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4">
+      <c r="C109" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" s="3" customFormat="1">
+      <c r="B111" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4">
+      <c r="C112" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D112" s="5"/>
+    </row>
+    <row r="113" spans="4:4">
+      <c r="D113" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="114" spans="4:4">
+      <c r="D114" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="115" spans="4:4">
+      <c r="D115" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
